--- a/template_examples/atacseq_fastq_template.xlsx
+++ b/template_examples/atacseq_fastq_template.xlsx
@@ -221,7 +221,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">quantitative measure of the sequencing libraries quality</t>
+          <t xml:space="preserve">One quantitative measure of the sequencing accuracy.</t>
         </r>
       </text>
     </comment>
@@ -318,7 +318,7 @@
     <t xml:space="preserve">Sequencing date</t>
   </si>
   <si>
-    <t xml:space="preserve">Dv200</t>
+    <t xml:space="preserve">%q30</t>
   </si>
   <si>
     <t xml:space="preserve">Quality flag</t>
@@ -429,7 +429,7 @@
     <t xml:space="preserve">Number</t>
   </si>
   <si>
-    <t xml:space="preserve">quantitative measure of the sequencing libraries quality</t>
+    <t xml:space="preserve">One quantitative measure of the sequencing accuracy.</t>
   </si>
   <si>
     <t xml:space="preserve">Flag used for quality.</t>
@@ -701,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:I2012"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,7 +868,7 @@
         <v>40179</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>40179</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>40179</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>40179</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>1</v>

--- a/template_examples/atacseq_fastq_template.xlsx
+++ b/template_examples/atacseq_fastq_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/VSCodeProjects/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802E858B-D440-F24C-86DE-DAFBCABDA574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD9E606-4116-3143-A6C4-E05FBC38CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="74">
   <si>
     <t>#title</t>
   </si>
@@ -579,9 +579,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -591,6 +588,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -978,7 +978,7 @@
   <dimension ref="A1:I2013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -990,27 +990,30 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1018,10 +1021,10 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1029,28 +1032,28 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1058,10 +1061,10 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1069,10 +1072,10 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1080,52 +1083,52 @@
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1133,28 +1136,28 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>40179</v>
       </c>
       <c r="H14">
         <v>90</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1162,28 +1165,28 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>40179</v>
       </c>
       <c r="H15">
         <v>90</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1191,28 +1194,28 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>40179</v>
       </c>
       <c r="H16">
         <v>90</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1220,28 +1223,28 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>40179</v>
       </c>
       <c r="H17">
         <v>90</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11274,17 +11277,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -11295,7 +11298,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -11309,7 +11312,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -11320,7 +11323,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -11331,7 +11334,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
@@ -11345,7 +11348,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -11359,7 +11362,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
@@ -11370,7 +11373,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
@@ -11381,12 +11384,12 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
@@ -11400,7 +11403,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
@@ -11408,7 +11411,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
@@ -11419,7 +11422,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
@@ -11430,7 +11433,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
@@ -11441,7 +11444,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
@@ -11452,7 +11455,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
@@ -11463,7 +11466,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
@@ -11492,13 +11495,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
